--- a/modelo_dados.xlsx
+++ b/modelo_dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Linha</t>
   </si>
@@ -89,14 +89,21 @@
   </si>
   <si>
     <t xml:space="preserve">20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -179,13 +186,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,24 +216,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,6 +310,44 @@
       </c>
       <c r="L2" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3145</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.809027777777778</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.822916666666667</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0.916666666666667</v>
       </c>
     </row>
   </sheetData>
